--- a/工作代码/每日报表/发送表/宝昌市场营销日报2018.12.11.xlsx
+++ b/工作代码/每日报表/发送表/宝昌市场营销日报2018.12.11.xlsx
@@ -5,24 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Documents\00code\PYthon_Study\工作代码\每日报表\发送表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PYthon_Study\工作代码\每日报表\发送表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B45E3B-920A-4C5E-BC42-3EB6E1771B0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416D253E-12EB-45A1-9ACA-F5C31E919640}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11400" windowWidth="21000" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12312" windowWidth="21000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -126,11 +119,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">供电局数据没有更新，对标数据为11月27日数据 </t>
+    <t>2#</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2#</t>
+    <t xml:space="preserve">供电局数据没有更新，对标数据为12月07日数据 </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -851,22 +844,22 @@
   <dimension ref="A5:XFB35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G16" sqref="G16:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="1" customWidth="1"/>
     <col min="4" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.21875" style="1" customWidth="1"/>
     <col min="10" max="16381" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>0</v>
       </c>
@@ -878,7 +871,7 @@
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
     </row>
-    <row r="6" spans="1:13 16382:16382" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13 16382:16382" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -898,7 +891,7 @@
       </c>
       <c r="XFB6" s="1"/>
     </row>
-    <row r="7" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>6</v>
       </c>
@@ -913,7 +906,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -926,7 +919,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
       <c r="B9" s="22"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
@@ -939,7 +932,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>10</v>
       </c>
@@ -954,7 +947,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -967,7 +960,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:13 16382:16382" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13 16382:16382" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="3" t="s">
         <v>9</v>
@@ -980,9 +973,9 @@
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>11</v>
@@ -992,7 +985,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="9">
-        <v>5.5281320972965178</v>
+        <v>-5.0636895660678221</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -1003,7 +996,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="23"/>
       <c r="C14" s="3" t="s">
@@ -1011,13 +1004,13 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="9">
-        <v>35.824349593213554</v>
+        <v>14.813213134128304</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="23"/>
       <c r="C15" s="3" t="s">
@@ -1025,13 +1018,13 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="9">
-        <v>628.11771453509073</v>
+        <v>681.870082761719</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:13 16382:16382" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13 16382:16382" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="23" t="s">
         <v>12</v>
@@ -1041,13 +1034,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="38"/>
       <c r="H16" s="39"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="23"/>
       <c r="C17" s="3" t="s">
@@ -1055,13 +1048,13 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="40"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="23"/>
       <c r="C18" s="3" t="s">
@@ -1075,7 +1068,7 @@
       <c r="G18" s="40"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>13</v>
       </c>
@@ -1088,7 +1081,7 @@
       <c r="G19" s="40"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1099,7 +1092,7 @@
       <c r="G20" s="40"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="3" t="s">
         <v>9</v>
@@ -1110,7 +1103,7 @@
       <c r="G21" s="40"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
         <v>14</v>
       </c>
@@ -1123,7 +1116,7 @@
       <c r="G22" s="40"/>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -1134,7 +1127,7 @@
       <c r="G23" s="40"/>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="3" t="s">
         <v>9</v>
@@ -1145,7 +1138,7 @@
       <c r="G24" s="40"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1160,7 +1153,7 @@
       <c r="G25" s="40"/>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
         <v>18</v>
       </c>
@@ -1175,7 +1168,7 @@
       <c r="G26" s="40"/>
       <c r="H26" s="41"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="3" t="s">
         <v>20</v>
@@ -1186,7 +1179,7 @@
       <c r="G27" s="42"/>
       <c r="H27" s="43"/>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
         <v>31</v>
       </c>
@@ -1198,7 +1191,7 @@
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -1216,7 +1209,7 @@
       </c>
       <c r="I29" s="27"/>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="31"/>
       <c r="C30" s="32"/>
       <c r="D30" s="14" t="s">
@@ -1235,10 +1228,10 @@
         <v>23</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="31"/>
       <c r="C31" s="14" t="s">
         <v>27</v>
@@ -1250,7 +1243,7 @@
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="31"/>
       <c r="C32" s="14" t="s">
         <v>28</v>
@@ -1262,7 +1255,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="31"/>
       <c r="C33" s="14" t="s">
         <v>29</v>
@@ -1274,7 +1267,7 @@
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
     </row>
-    <row r="34" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="32"/>
       <c r="C34" s="14" t="s">
         <v>30</v>
@@ -1286,7 +1279,7 @@
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
       <c r="J35" s="17"/>
